--- a/web-framework/server/data-norm/IUs.xlsx
+++ b/web-framework/server/data-norm/IUs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,5291 @@
           <t>aun</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>iu_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>123460302</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Montgomery County IU 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>119350303</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Northeastern Educational IU 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>101260303</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Intermediate Unit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>127040503</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Beaver Valley IU 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>103020603</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>106160303</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Riverview IU 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>121390302</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Carbon-Lehigh IU 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>108070502</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>127040703</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Beaver Valley IU 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>113380303</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Lancaster-Lebanon IU 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>114060503</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Berks County IU 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>128030603</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ARIN IU 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>128030852</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ARIN IU 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>117080503</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BLaST IU 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>109530304</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Seneca Highlands IU 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>101630504</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Intermediate Unit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>124150503</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Chester County IU 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>103020753</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>110141003</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Central IU 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>103021102</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>120480803</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Colonial IU 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>127041203</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Beaver Valley IU 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>108051003</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>107650603</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Westmoreland IU 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>110141103</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Central IU 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>108071003</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>122091002</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Bucks County IU 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>116191004</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Central Susquehanna IU 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>101630903</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Intermediate Unit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>108561003</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112011103</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Lincoln IU 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>116191103</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Central Susquehanna IU 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>103021252</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>120481002</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Colonial IU 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>101631003</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Intermediate Unit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>127041503</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Beaver Valley IU 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>115210503</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Capital Area IU 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>127041603</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Beaver Valley IU 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>108110603</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>128321103</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ARIN IU 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>116191203</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Central Susquehanna IU 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>129540803</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Schuylkill IU 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>119581003</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Northeastern Educational IU 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>114060753</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Berks County IU 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>109420803</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Seneca Highlands IU 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>114060853</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Berks County IU 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>103021453</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>122091303</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Bucks County IU 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>122091352</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Bucks County IU 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>106330703</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Riverview IU 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>106330803</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Riverview IU 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>101260803</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Intermediate Unit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>101631203</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Intermediate Unit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>107650703</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Westmoreland IU 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>104101252</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>101631503</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Intermediate Unit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>108111203</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>109122703</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Seneca Highlands IU 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>115211003</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Capital Area IU 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>101631703</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Intermediate Unit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>117081003</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>BLaST IU 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>119351303</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Northeastern Educational IU 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>115211103</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Capital Area IU 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>103021603</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>101301303</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Intermediate Unit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>121391303</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Carbon-Lehigh IU 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>122092002</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Bucks County IU 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>122092102</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Bucks County IU 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>108111303</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>116191503</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Central Susquehanna IU 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>115221402</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Capital Area IU 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>111291304</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Tuscarora IU 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>101301403</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Intermediate Unit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>127042003</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Beaver Valley IU 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>112671303</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Lincoln IU 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>112281302</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Lincoln IU 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>101631803</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Intermediate Unit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>103021752</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>101631903</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Intermediate Unit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>123461302</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Montgomery County IU 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>125231232</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Delaware County IU 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>108051503</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>125231303</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Delaware County IU 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>103021903</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>106161203</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Riverview IU 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>106161703</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Riverview IU 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>108071504</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>110171003</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Central IU 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>124151902</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Chester County IU 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>113361303</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Lancaster-Lebanon IU 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>123461602</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Montgomery County IU 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>113361503</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Lancaster-Lebanon IU 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>104431304</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>108561803</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>108111403</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>113361703</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Lancaster-Lebanon IU 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>112011603</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Lincoln IU 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>105201033</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Northwest Tri-County IU 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>101261302</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Intermediate Unit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>114061103</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Berks County IU 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>103022103</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>113381303</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Lancaster-Lebanon IU 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>105251453</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Northwest Tri-County IU 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>109531304</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Seneca Highlands IU 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>122092353</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Bucks County IU 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106611303</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Riverview IU 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>105201352</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Northwest Tri-County IU 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>118401403</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Luzerne IU 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>115211603</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Capital Area IU 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110171803</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Central IU 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>118401603</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Luzerne IU 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112671603</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Lincoln IU 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>114061503</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Berks County IU 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>116471803</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Central Susquehanna IU 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>103022253</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>120522003</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Colonial IU 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>107651603</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Westmoreland IU 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>115221753</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Capital Area IU 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>113362203</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Lancaster-Lebanon IU 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>112671803</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Lincoln IU 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>124152003</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Chester County IU 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>106172003</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Riverview IU 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>119352203</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Northeastern Educational IU 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>103022503</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>103022803</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>117412003</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>BLaST IU 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>121392303</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Carbon-Lehigh IU 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>115212503</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Capital Area IU 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>120452003</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Colonial IU 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>113362303</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Lancaster-Lebanon IU 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>113382303</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Lancaster-Lebanon IU 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>112672203</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Lincoln IU 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>120483302</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Colonial IU 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>103023153</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>113362403</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Lancaster-Lebanon IU 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>119582503</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Northeastern Educational IU 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>104372003</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>113362603</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Lancaster-Lebanon IU 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>105252602</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Northwest Tri-County IU 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>108053003</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>114062003</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Berks County IU 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>112013054</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Lincoln IU 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>105253303</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Northwest Tri-County IU 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>112282004</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Lincoln IU 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>104432503</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>108112003</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>114062503</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Berks County IU 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>111292304</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Tuscarora IU 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>106272003</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Riverview IU 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>119583003</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Northeastern Educational IU 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>108112203</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>101632403</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Intermediate Unit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>105253553</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Northwest Tri-County IU 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>103023912</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>106612203</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Riverview IU 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>107652603</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Westmoreland IU 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>101262903</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Intermediate Unit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>127042853</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Beaver Valley IU 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>128033053</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>ARIN IU 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>109532804</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Seneca Highlands IU 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>125234103</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Delaware County IU 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>103024102</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>105253903</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Northwest Tri-County IU 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>112013753</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Lincoln IU 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>105254053</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Northwest Tri-County IU 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>110173003</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Central IU 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>114063003</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Berks County IU 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>124153503</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Chester County IU 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>108112502</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>107653102</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Westmoreland IU 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>118402603</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Luzerne IU 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>112283003</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Lincoln IU 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>107653203</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Westmoreland IU 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>104432803</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>115503004</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Capital Area IU 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>104432903</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>115222504</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Capital Area IU 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>114063503</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Berks County IU 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>103024603</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>118403003</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Luzerne IU 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>112672803</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Lincoln IU 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>105254353</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Northwest Tri-County IU 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>110173504</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Central IU 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>115222752</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Capital Area IU 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>123463603</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Montgomery County IU 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>125234502</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Delaware County IU 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>118403302</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Luzerne IU 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>113363103</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Lancaster-Lebanon IU 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>107653802</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Westmoreland IU 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>104433303</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>103024753</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>108073503</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>128323303</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ARIN IU 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>127044103</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Beaver Valley IU 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>111312503</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Tuscarora IU 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>128323703</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>ARIN IU 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>125235103</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Delaware County IU 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>105256553</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Northwest Tri-County IU 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>104433604</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>107654103</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Westmoreland IU 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>101303503</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Intermediate Unit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>123463803</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Montgomery County IU 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>117414003</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>BLaST IU 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>121135003</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Carbon-Lehigh IU 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>109243503</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Seneca Highlands IU 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>111343603</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Tuscarora IU 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>111312804</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Tuscarora IU 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>109422303</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Seneca Highlands IU 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>104103603</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>124154003</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Chester County IU 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>106166503</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Riverview IU 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>110183602</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Central IU 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>103025002</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>107654403</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Westmoreland IU 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>114064003</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Berks County IU 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>119665003</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Northeastern Educational IU 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>118403903</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Luzerne IU 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>119354603</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Northeastern Educational IU 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>104433903</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>113363603</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Lancaster-Lebanon IU 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>113364002</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Lancaster-Lebanon IU 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>104374003</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>101264003</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Intermediate Unit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>113384603</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Lancaster-Lebanon IU 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>128034503</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>ARIN IU 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>121135503</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Carbon-Lehigh IU 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>116604003</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Central Susquehanna IU 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>107654903</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Westmoreland IU 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>116493503</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Central Susquehanna IU 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>112015203</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Lincoln IU 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>115224003</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Capital Area IU 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>123464502</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Montgomery County IU 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>123464603</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Montgomery County IU 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>117414203</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>BLaST IU 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>129544503</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Schuylkill IU 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>113364403</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Lancaster-Lebanon IU 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>113364503</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Lancaster-Lebanon IU 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>128325203</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>ARIN IU 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>125235502</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Delaware County IU 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>104105003</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>101633903</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Intermediate Unit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>103026002</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>115216503</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Capital Area IU 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>104435003</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>123465303</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Montgomery County IU 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>108565203</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>119355503</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Northeastern Educational IU 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>116555003</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Central Susquehanna IU 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>115226003</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Capital Area IU 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>127045303</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Beaver Valley IU 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>111444602</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Tuscarora IU 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>116605003</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Central Susquehanna IU 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>105257602</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Northwest Tri-County IU 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>115226103</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Capital Area IU 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>116195004</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Central Susquehanna IU 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>116495003</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Central Susquehanna IU 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>129544703</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Schuylkill IU 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>104375003</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>107655803</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Westmoreland IU 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>104105353</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>117415004</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>BLaST IU 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>103026303</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>117415103</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>BLaST IU 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>119584503</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Northeastern Educational IU 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>103026343</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>122097203</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Bucks County IU 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>110175003</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Central IU 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>116495103</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Central Susquehanna IU 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>107655903</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Westmoreland IU 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>111316003</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Tuscarora IU 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>119584603</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Northeastern Educational IU 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>103026402</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>114065503</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Berks County IU 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>117415303</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>BLaST IU 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>120484803</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Colonial IU 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>122097502</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Bucks County IU 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>104375203</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>127045653</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Beaver Valley IU 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>104375302</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>122097604</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Bucks County IU 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>107656303</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Westmoreland IU 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>115504003</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Capital Area IU 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>123465602</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Montgomery County IU 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>103026852</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>106167504</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Riverview IU 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>105258303</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Northwest Tri-County IU 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>103026902</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>123465702</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Montgomery County IU 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>119356503</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Northeastern Educational IU 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>129545003</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Schuylkill IU 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>108565503</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>120484903</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Colonial IU 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>117083004</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>BLaST IU 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>112674403</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Lincoln IU 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>108056004</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>108114503</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>113385003</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Lancaster-Lebanon IU 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>121394503</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Carbon-Lehigh IU 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>109535504</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Seneca Highlands IU 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>117596003</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>BLaST IU 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>115674603</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Capital Area IU 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>103026873</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>118406003</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Luzerne IU 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>105258503</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Northwest Tri-County IU 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>121394603</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Carbon-Lehigh IU 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>107656502</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Westmoreland IU 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>124156503</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Chester County IU 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>106616203</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Riverview IU 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>119356603</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Northeastern Educational IU 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>114066503</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Berks County IU 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>109537504</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Seneca Highlands IU 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>109426003</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Seneca Highlands IU 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>124156603</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Chester County IU 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>124156703</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Chester County IU 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>122098003</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Bucks County IU 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>121136503</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Carbon-Lehigh IU 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>113385303</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Lancaster-Lebanon IU 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>121136603</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Carbon-Lehigh IU 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>121395103</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Carbon-Lehigh IU 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>120485603</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Colonial IU 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>108116003</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>103027352</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>113365203</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Lancaster-Lebanon IU 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>125236903</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Delaware County IU 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>107657103</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Westmoreland IU 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>105204703</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Northwest Tri-County IU 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>122098103</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Bucks County IU 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>128326303</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>ARIN IU 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>110147003</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Central IU 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>122098202</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Bucks County IU 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>113365303</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Lancaster-Lebanon IU 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>123466103</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Montgomery County IU 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>101636503</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Intermediate Unit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>126515001</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Philadelphia IU 26</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>110177003</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Central IU 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>124157203</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Chester County IU 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>129546003</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Schuylkill IU 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>103021003</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>102027451</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Pittsburgh-Mt Oliver IU 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>118406602</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Luzerne IU 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>120455203</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Colonial IU 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>103027503</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>120455403</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Colonial IU 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>109426303</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Seneca Highlands IU 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>108116303</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>123466303</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Montgomery County IU 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>123466403</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Montgomery County IU 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>129546103</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Schuylkill IU 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>106338003</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Riverview IU 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>128327303</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>ARIN IU 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>103027753</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>122098403</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Bucks County IU 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>125237603</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Delaware County IU 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>114067002</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Berks County IU 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>112675503</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Lincoln IU 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>106168003</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Riverview IU 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>104435303</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>108116503</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>109246003</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Seneca Highlands IU 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>125237702</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Delaware County IU 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>101637002</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Intermediate Unit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>127045853</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Beaver Valley IU 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>119357003</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Northeastern Educational IU 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>103028203</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>127046903</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Beaver Valley IU 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>108566303</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>125237903</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Delaware County IU 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>129546803</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Schuylkill IU 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>109248003</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Seneca Highlands IU 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>121395603</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Carbon-Lehigh IU 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>108567004</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>120486003</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Colonial IU 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>117086003</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>BLaST IU 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>129547303</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Schuylkill IU 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>114067503</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Berks County IU 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>119357402</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Northeastern Educational IU 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>116557103</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Central Susquehanna IU 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>104107903</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>108567204</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>103028302</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>116496503</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Central Susquehanna IU 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>108567404</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>104435603</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>104435703</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>129547203</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Schuylkill IU 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>104376203</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>116496603</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Central Susquehanna IU 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>115218003</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Capital Area IU 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>104107503</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>109427503</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Seneca Highlands IU 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>113367003</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Lancaster-Lebanon IU 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>108567703</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>123467103</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Montgomery County IU 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>103028653</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>104107803</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>112676203</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Lincoln IU 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>103028703</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>115218303</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Capital Area IU 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>103028753</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>127047404</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Beaver Valley IU 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>112676403</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Lincoln IU 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>117416103</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>BLaST IU 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>125238402</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Delaware County IU 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>101306503</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Intermediate Unit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>116197503</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Central Susquehanna IU 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>111297504</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Tuscarora IU 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>111317503</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Tuscarora IU 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>121395703</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Carbon-Lehigh IU 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>117597003</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>BLaST IU 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>112676503</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Lincoln IU 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>107657503</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Westmoreland IU 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>108077503</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>112676703</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Lincoln IU 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>123467303</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Montgomery County IU 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>125238502</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Delaware County IU 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>123467203</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Montgomery County IU 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>110148002</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Central IU 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>103028833</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>115228003</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Capital Area IU 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>103028853</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>120456003</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Colonial IU 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>117576303</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>BLaST IU 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>119586503</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Northeastern Educational IU 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>115228303</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Capital Area IU 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>115506003</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Capital Area IU 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>129547603</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Schuylkill IU 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>106617203</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Riverview IU 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>117086503</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>BLaST IU 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>124157802</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Chester County IU 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>129547803</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Schuylkill IU 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>101638003</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Intermediate Unit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>117086653</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>BLaST IU 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>114068003</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Berks County IU 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>118667503</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Luzerne IU 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>108568404</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>112286003</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Lincoln IU 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>108058003</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>114068103</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Berks County IU 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>108078003</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>104377003</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>105259103</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Northwest Tri-County IU 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>106169003</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Riverview IU 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>101268003</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Intermediate Unit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>124158503</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Chester County IU 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>128328003</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>ARIN IU 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>112018523</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Lincoln IU 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>125239452</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Delaware County IU 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>115229003</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Capital Area IU 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>123468303</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Montgomery County IU 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>123468402</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Montgomery County IU 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>123468503</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Montgomery County IU 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>123468603</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Montgomery County IU 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>103029203</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>106618603</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Riverview IU 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>119358403</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Northeastern Educational IU 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>119648303</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Northeastern Educational IU 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>125239603</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Delaware County IU 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>105628302</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Northwest Tri-County IU 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>116498003</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Central Susquehanna IU 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>113369003</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Lancaster-Lebanon IU 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>101638803</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Intermediate Unit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>105259703</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Northwest Tri-County IU 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>119648703</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Northeastern Educational IU 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>112289003</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Lincoln IU 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>121139004</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Carbon-Lehigh IU 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>117598503</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>BLaST IU 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>103029403</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>110179003</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Central IU 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>124159002</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Chester County IU 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>101308503</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Intermediate Unit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>103029553</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>104437503</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>103029603</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>115508003</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Capital Area IU 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>115219002</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Capital Area IU 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>112678503</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Lincoln IU 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>127049303</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Beaver Valley IU 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>119648903</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Northeastern Educational IU 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>108118503</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>121397803</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Carbon-Lehigh IU 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>118408852</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Luzerne IU 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>103029803</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>125239652</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Delaware County IU 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>129548803</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Schuylkill IU 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>108079004</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>117417202</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>BLaST IU 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>104378003</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>114069103</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Berks County IU 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>120488603</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Colonial IU 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>108569103</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>123469303</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Montgomery County IU 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>103029902</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>117089003</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>BLaST IU 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>118409203</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Luzerne IU 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>118409302</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Luzerne IU 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>114069353</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Berks County IU 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>112679002</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Lincoln IU 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>112679403</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Lincoln IU 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>107658903</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Westmoreland IU 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>101000000</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Intermediate Unit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>102000000</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Pittsburgh-Mt Oliver IU 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>103000000</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Allegheny IU 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>104000000</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Midwestern IU 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>105000000</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Northwest Tri-County IU 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>106000000</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Riverview IU 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>107000000</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Westmoreland IU 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Appalachia IU 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>109000000</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Seneca Highlands IU 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>110000000</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Central IU 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>111000000</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Tuscarora IU 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>112000000</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Lincoln IU 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>113000000</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Lancaster-Lebanon IU 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>114000000</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Berks County IU 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>115000000</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Capital Area IU 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>116000000</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Central Susquehanna IU 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>117000000</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>BLaST IU 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>118000000</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Luzerne IU 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>119000000</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Northeastern Educational IU 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>120000000</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Colonial IU 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>121000000</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Carbon-Lehigh IU 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>122000000</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Bucks County IU 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>123000000</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Montgomery County IU 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>124000000</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Chester County IU 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>125000000</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Delaware County IU 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>126000000</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Philadelphia IU 26</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>127000000</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Beaver Valley IU 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>128000000</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>ARIN IU 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>129000000</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Schuylkill IU 29</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
